--- a/test.xlsx
+++ b/test.xlsx
@@ -212,7 +212,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.78740157499999996" bottom="0.78740157499999996" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" orientation="portrait" firstPageNumber="1"/>
 </worksheet>
 </file>